--- a/payment_reminders.xlsx
+++ b/payment_reminders.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,35 +440,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Agreement Name</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Header Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Due Date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Due Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Message</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Last Sent</t>
         </is>
@@ -477,64 +487,268 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rahul</t>
+          <t>ff04e455-a028-429a-bb52-01936aa6178a</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Joe</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>libhope4christ@gmail.com</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45936</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Just a gentle reminder that your payment is due today. We would appreciate it if you could make the payment at your earliest convenience.</t>
-        </is>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Agreement Renewal Date</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hi Sir, This is a gentle reminder of  your agreement renewal date is near hope you are checking on it.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-10-09 15:20:11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ligin</t>
+          <t>6022b079-2729-424f-82a5-cf4df85c418d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ligin719120@gmail.com</t>
+          <t>Adarsh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EMI-Two-Wheeler</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45936</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abbe Tera gadi ka Emi pending ha  be </t>
-        </is>
+          <t>libhope4christ@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pay the due</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-10-07 13:30:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5247c8bb-a800-4c82-aac9-48c4dbc57ba3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hari Sir</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>smsdfinance@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expense </t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is ur exp pls pay </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-10-07 16:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8546aad3-163a-4b8b-902a-a6d70000c7c2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LIII</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>libhpoe4christ@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>payment due</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-10-09 15:30:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>991eb5a1-3e45-407c-92f4-1c02f4fca252</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lib</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>libhope4christ@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ls pay</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>a086b30b-08be-42d2-9291-fb07109468be</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>libhope4christ@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pay</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-10-10 14:06:51</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/payment_reminders.xlsx
+++ b/payment_reminders.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,11 @@
           <t>Last Sent</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Created At</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,11 +511,11 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45937</v>
+        <v>45941</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -525,9 +530,10 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-10-09 15:20:11</t>
-        </is>
-      </c>
+          <t>2025-10-11 11:20:05</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -551,11 +557,11 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45937</v>
+        <v>45941</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -573,6 +579,7 @@
           <t>2025-10-07 13:30:03</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -596,11 +603,11 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45937</v>
+        <v>45941</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -618,6 +625,7 @@
           <t>2025-10-07 16:00:03</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -641,11 +649,11 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45939</v>
+        <v>45941</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -663,6 +671,7 @@
           <t>2025-10-09 15:30:03</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,11 +695,11 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45940</v>
+        <v>45941</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -704,6 +713,7 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -727,11 +737,11 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45940</v>
+        <v>45941</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -749,6 +759,483 @@
           <t>2025-10-10 14:06:51</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2a743115-2c5f-419e-98ca-6e9bb5acafbe</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Test User 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>smsdfinance@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Test Automatic Reminder 1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>This is an automatic test reminder sent by the scheduler system. If you receive this, the automatic timing system is working!</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:25:20</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bb32af0a-3e1a-411d-8a83-7f2aa73d194e</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Test User 2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>smsdfinance@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Test Automatic Reminder 2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>This is the second automatic test reminder. The scheduler is working perfectly!</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:30:02</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:25:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6f680bfb-9d7a-4e00-9d8e-f3bed01085d7</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Scheduler Test User</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>smsdfinance@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Automatic Scheduler Test</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>This is an automatic test email from the scheduler system. If you receive this, the automatic timing system is working perfectly!</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:32:03</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:27:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>d2ddd737-be67-412a-b852-e9dfaed03dc7</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>External Test - Joe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>libhope4christ@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>External Email Test - Automatic Scheduler</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17:49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dear Joe,
+This is an automatic test email to verify that the enhanced email system can send emails from smsdfinance@gmail.com to external email addresses.
+Test Details:
+- Sent automatically by the scheduler system
+- Time: 2025-10-10 17:49:46
+- From: smsdfinance@gmail.com
+- To: libhope4christ@gmail.com
+If you receive this email, the external email sending issue has been completely resolved!
+Best regards,
+Reminder System</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-10-10 17:46:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>d25febd7-08af-4acb-bd30-3b4d32e13b38</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Automatic Test User</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>smsdfinance@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Automatic Mail System Test</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>09:37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>This is an automatic test email to verify the automatic mail sending system.
+Test Details:
+- Scheduled Time: 2025-10-11 09:37:20
+- System: Automatic Mail Sending
+- Status: If you receive this, automatic sending is working!
+This email was sent automatically by the scheduler system.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-10-11 09:35:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>836a0d77-b23f-4773-950f-af0d60ef45cd</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Demo User</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>smsdfinance@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Demo: Automatic Email Sending Test</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>09:43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Dear Demo User,
+This is a demonstration of the automatic email sending system.
+Demo Details:
+- Created: 2025-10-11 09:38:17
+- Scheduled: 2025-10-11 09:43:17
+- System: Automatic Mail Sending
+- Purpose: Demonstrate auto-schedule functionality
+If you receive this email, it means:
+✅ Automatic reminder creation works
+✅ Automatic scheduling works  
+✅ Automatic email sending works
+✅ The system is fully operational
+You can now create your own automatic reminders following the same process!
+Best regards,
+Automatic Mail System</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-10-11 09:43:04</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-10-11 09:38:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8aede281-406e-4b47-9618-2455491178a1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>libhope4christ@gmail.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-10-11 09:45:04</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TEST_112005</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Immediate Test User</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>smsdfinance@gmail.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>URGENT: Timing System Test</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>11:21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>TIMING SYSTEM TEST - 11:20:05
+This is an immediate test to verify the timing mail system is working.
+Scheduled for: 2025-10-11 11:21:05
+Current time: 2025-10-11 11:20:05
+If you receive this email, the timing system is working correctly!</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-10-11 11:20:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>79e8d2a5-1b47-4fd1-a609-14e671401ccb</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>KK</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>libhope4christ@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Paymnet</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-10-11 11:30:04</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/payment_reminders.xlsx
+++ b/payment_reminders.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,6 +1237,52 @@
       </c>
       <c r="J16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>49b962c0-4187-4112-b0b3-1170fd9b7914</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>jhkjh</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>libhope4christ@gmail.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>nlknl</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-10-11 12:45:04</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
